--- a/data/tv_data.xlsx
+++ b/data/tv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>grade_score</t>
   </si>
@@ -121,9 +121,6 @@
     <t>t1x24quwpanmwwi</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>7oeegvf2v2thatg</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>glk870ripibqup7</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>29584386</t>
@@ -898,8 +892,8 @@
       <c r="E2" t="n">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -991,7 +985,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>7.96051</v>
@@ -1005,8 +999,8 @@
       <c r="E3" t="n">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1098,7 +1092,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>8.294180000000001</v>
@@ -1112,8 +1106,8 @@
       <c r="E4" t="n">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -1205,7 +1199,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="n">
         <v>6.5569</v>
@@ -1219,8 +1213,8 @@
       <c r="E5" t="n">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1312,7 +1306,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="n">
         <v>8.47917</v>
@@ -1326,8 +1320,8 @@
       <c r="E6" t="n">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n">
         <v>6.50301</v>
@@ -1433,8 +1427,8 @@
       <c r="E7" t="n">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1526,7 +1520,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="n">
         <v>7.87956</v>
@@ -1540,8 +1534,8 @@
       <c r="E8" t="n">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1633,7 +1627,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="n">
         <v>8.780519999999999</v>
@@ -1647,8 +1641,8 @@
       <c r="E9" t="n">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>9.408530000000001</v>
@@ -1754,8 +1748,8 @@
       <c r="E10" t="n">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
         <v>7.03373</v>
@@ -1861,8 +1855,8 @@
       <c r="E11" t="n">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1954,7 +1948,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="n">
         <v>7.14298</v>
@@ -1968,8 +1962,8 @@
       <c r="E12" t="n">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2061,7 +2055,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="n">
         <v>7.36728</v>
@@ -2075,8 +2069,8 @@
       <c r="E13" t="n">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2168,7 +2162,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="n">
         <v>8.296150000000001</v>
@@ -2182,8 +2176,8 @@
       <c r="E14" t="n">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2275,7 +2269,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="n">
         <v>8.007479999999999</v>
@@ -2289,8 +2283,8 @@
       <c r="E15" t="n">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
-        <v>35</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2382,7 +2376,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="n">
         <v>7.68153</v>
@@ -2396,8 +2390,8 @@
       <c r="E16" t="n">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
-        <v>35</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2489,7 +2483,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
         <v>7.80618</v>
@@ -2503,8 +2497,8 @@
       <c r="E17" t="n">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2596,7 +2590,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="n">
         <v>7.01997</v>
@@ -2610,8 +2604,8 @@
       <c r="E18" t="n">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2703,7 +2697,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
         <v>7.11124</v>
@@ -2717,8 +2711,8 @@
       <c r="E19" t="n">
         <v>45</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2810,7 +2804,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="n">
         <v>7.49311</v>
@@ -2824,8 +2818,8 @@
       <c r="E20" t="n">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="n">
         <v>4.5418</v>
@@ -2931,8 +2925,8 @@
       <c r="E21" t="n">
         <v>45</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -3024,7 +3018,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="n">
         <v>7.99962</v>
@@ -3038,8 +3032,8 @@
       <c r="E22" t="n">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>35</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -3131,7 +3125,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="n">
         <v>8.678839999999999</v>
@@ -3145,8 +3139,8 @@
       <c r="E23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>35</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3238,7 +3232,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="n">
         <v>7.35699</v>
@@ -3252,8 +3246,8 @@
       <c r="E24" t="n">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
-        <v>35</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3345,7 +3339,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="n">
         <v>6.77952</v>
@@ -3359,8 +3353,8 @@
       <c r="E25" t="n">
         <v>60</v>
       </c>
-      <c r="F25" t="s">
-        <v>59</v>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3452,7 +3446,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="n">
         <v>8.9</v>
@@ -3466,8 +3460,8 @@
       <c r="E26" t="n">
         <v>46</v>
       </c>
-      <c r="F26" t="s">
-        <v>59</v>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3559,7 +3553,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="n">
         <v>8.03782</v>
@@ -3573,8 +3567,8 @@
       <c r="E27" t="n">
         <v>40</v>
       </c>
-      <c r="F27" t="s">
-        <v>35</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3666,7 +3660,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
         <v>8.46073</v>
@@ -3680,8 +3674,8 @@
       <c r="E28" t="n">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>35</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3773,7 +3767,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" t="n">
         <v>6.94073</v>
@@ -3787,8 +3781,8 @@
       <c r="E29" t="n">
         <v>46</v>
       </c>
-      <c r="F29" t="s">
-        <v>35</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3880,7 +3874,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="n">
         <v>9.45377</v>
@@ -3894,8 +3888,8 @@
       <c r="E30" t="n">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
-        <v>35</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3987,7 +3981,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>8.199999999999999</v>
@@ -4001,8 +3995,8 @@
       <c r="E31" t="n">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
-        <v>59</v>
+      <c r="F31" t="n">
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -4094,7 +4088,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>8.5</v>
@@ -4108,8 +4102,8 @@
       <c r="E32" t="n">
         <v>40</v>
       </c>
-      <c r="F32" t="s">
-        <v>59</v>
+      <c r="F32" t="n">
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -4201,7 +4195,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" t="n">
         <v>7.3</v>
@@ -4215,8 +4209,8 @@
       <c r="E33" t="n">
         <v>45</v>
       </c>
-      <c r="F33" t="s">
-        <v>59</v>
+      <c r="F33" t="n">
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -4308,7 +4302,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="n">
         <v>7.9</v>
@@ -4322,8 +4316,8 @@
       <c r="E34" t="n">
         <v>45</v>
       </c>
-      <c r="F34" t="s">
-        <v>59</v>
+      <c r="F34" t="n">
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -4415,7 +4409,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" t="n">
         <v>8.199999999999999</v>
@@ -4429,8 +4423,8 @@
       <c r="E35" t="n">
         <v>46</v>
       </c>
-      <c r="F35" t="s">
-        <v>59</v>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4522,7 +4516,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="n">
         <v>7.9</v>
@@ -4536,8 +4530,8 @@
       <c r="E36" t="n">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
-        <v>59</v>
+      <c r="F36" t="n">
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4629,7 +4623,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -4643,8 +4637,8 @@
       <c r="E37" t="n">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
-        <v>59</v>
+      <c r="F37" t="n">
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4736,7 +4730,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="n">
         <v>7.2</v>
@@ -4750,8 +4744,8 @@
       <c r="E38" t="n">
         <v>12</v>
       </c>
-      <c r="F38" t="s">
-        <v>59</v>
+      <c r="F38" t="n">
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4843,7 +4837,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="n">
         <v>9</v>
@@ -4857,8 +4851,8 @@
       <c r="E39" t="n">
         <v>45</v>
       </c>
-      <c r="F39" t="s">
-        <v>59</v>
+      <c r="F39" t="n">
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4950,7 +4944,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" t="n">
         <v>8.9</v>
@@ -4964,8 +4958,8 @@
       <c r="E40" t="n">
         <v>46</v>
       </c>
-      <c r="F40" t="s">
-        <v>59</v>
+      <c r="F40" t="n">
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5057,7 +5051,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" t="n">
         <v>8.199999999999999</v>
@@ -5071,8 +5065,8 @@
       <c r="E41" t="n">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
-        <v>59</v>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -5164,7 +5158,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" t="n">
         <v>9</v>
@@ -5178,8 +5172,8 @@
       <c r="E42" t="n">
         <v>46</v>
       </c>
-      <c r="F42" t="s">
-        <v>59</v>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -5271,7 +5265,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="n">
         <v>7.2</v>
@@ -5285,8 +5279,8 @@
       <c r="E43" t="n">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
-        <v>59</v>
+      <c r="F43" t="n">
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -5378,7 +5372,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" t="n">
         <v>9</v>
@@ -5392,8 +5386,8 @@
       <c r="E44" t="n">
         <v>34</v>
       </c>
-      <c r="F44" t="s">
-        <v>35</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -5485,7 +5479,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" t="n">
         <v>8.800000000000001</v>
@@ -5499,8 +5493,8 @@
       <c r="E45" t="n">
         <v>60</v>
       </c>
-      <c r="F45" t="s">
-        <v>59</v>
+      <c r="F45" t="n">
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -5592,7 +5586,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" t="n">
         <v>7.52331</v>
@@ -5606,8 +5600,8 @@
       <c r="E46" t="n">
         <v>60</v>
       </c>
-      <c r="F46" t="s">
-        <v>35</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5699,7 +5693,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" t="n">
         <v>7.22455</v>
@@ -5713,8 +5707,8 @@
       <c r="E47" t="n">
         <v>60</v>
       </c>
-      <c r="F47" t="s">
-        <v>59</v>
+      <c r="F47" t="n">
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -5806,7 +5800,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" t="n">
         <v>6.32988</v>
@@ -5820,8 +5814,8 @@
       <c r="E48" t="n">
         <v>45</v>
       </c>
-      <c r="F48" t="s">
-        <v>59</v>
+      <c r="F48" t="n">
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5913,7 +5907,7 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" t="n">
         <v>9.34904</v>
@@ -5927,8 +5921,8 @@
       <c r="E49" t="n">
         <v>45</v>
       </c>
-      <c r="F49" t="s">
-        <v>59</v>
+      <c r="F49" t="n">
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -6020,7 +6014,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" t="n">
         <v>6.25469</v>
@@ -6034,8 +6028,8 @@
       <c r="E50" t="n">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
-        <v>35</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -6127,7 +6121,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" t="n">
         <v>7.81509</v>
@@ -6141,8 +6135,8 @@
       <c r="E51" t="n">
         <v>45</v>
       </c>
-      <c r="F51" t="s">
-        <v>59</v>
+      <c r="F51" t="n">
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -6234,7 +6228,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" t="n">
         <v>6.36647</v>
@@ -6248,8 +6242,8 @@
       <c r="E52" t="n">
         <v>45</v>
       </c>
-      <c r="F52" t="s">
-        <v>35</v>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -6341,7 +6335,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" t="n">
         <v>5.19469</v>
@@ -6355,8 +6349,8 @@
       <c r="E53" t="n">
         <v>45</v>
       </c>
-      <c r="F53" t="s">
-        <v>35</v>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -6448,7 +6442,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" t="n">
         <v>6.80854</v>
@@ -6462,8 +6456,8 @@
       <c r="E54" t="n">
         <v>39</v>
       </c>
-      <c r="F54" t="s">
-        <v>35</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -6555,7 +6549,7 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" t="n">
         <v>8.83827</v>
@@ -6569,8 +6563,8 @@
       <c r="E55" t="n">
         <v>45</v>
       </c>
-      <c r="F55" t="s">
-        <v>35</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -6662,7 +6656,7 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" t="n">
         <v>6.74031</v>
@@ -6676,8 +6670,8 @@
       <c r="E56" t="n">
         <v>45</v>
       </c>
-      <c r="F56" t="s">
-        <v>35</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -6769,7 +6763,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57" t="n">
         <v>8.561719999999999</v>
@@ -6783,8 +6777,8 @@
       <c r="E57" t="n">
         <v>37</v>
       </c>
-      <c r="F57" t="s">
-        <v>35</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -6876,7 +6870,7 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" t="n">
         <v>6.232</v>
@@ -6890,8 +6884,8 @@
       <c r="E58" t="n">
         <v>45</v>
       </c>
-      <c r="F58" t="s">
-        <v>35</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -6983,7 +6977,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" t="n">
         <v>7.90154</v>
@@ -6997,8 +6991,8 @@
       <c r="E59" t="n">
         <v>46</v>
       </c>
-      <c r="F59" t="s">
-        <v>35</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -7090,7 +7084,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" t="n">
         <v>7.01129</v>
@@ -7104,8 +7098,8 @@
       <c r="E60" t="n">
         <v>44</v>
       </c>
-      <c r="F60" t="s">
-        <v>35</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -7197,7 +7191,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" t="n">
         <v>8.388299999999999</v>
@@ -7211,8 +7205,8 @@
       <c r="E61" t="n">
         <v>46</v>
       </c>
-      <c r="F61" t="s">
-        <v>35</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" t="n">
         <v>7.77263</v>
@@ -7318,8 +7312,8 @@
       <c r="E62" t="n">
         <v>45</v>
       </c>
-      <c r="F62" t="s">
-        <v>35</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -7411,7 +7405,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" t="n">
         <v>7.69395</v>
@@ -7425,8 +7419,8 @@
       <c r="E63" t="n">
         <v>45</v>
       </c>
-      <c r="F63" t="s">
-        <v>35</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -7518,7 +7512,7 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64" t="n">
         <v>8.60477</v>
@@ -7532,8 +7526,8 @@
       <c r="E64" t="n">
         <v>45</v>
       </c>
-      <c r="F64" t="s">
-        <v>35</v>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -7625,7 +7619,7 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" t="n">
         <v>6.54786</v>
@@ -7639,8 +7633,8 @@
       <c r="E65" t="n">
         <v>41</v>
       </c>
-      <c r="F65" t="s">
-        <v>35</v>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -7732,7 +7726,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" t="n">
         <v>8.20008</v>
@@ -7746,8 +7740,8 @@
       <c r="E66" t="n">
         <v>44</v>
       </c>
-      <c r="F66" t="s">
-        <v>35</v>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -7839,7 +7833,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" t="n">
         <v>7.06534</v>
@@ -7853,8 +7847,8 @@
       <c r="E67" t="n">
         <v>50</v>
       </c>
-      <c r="F67" t="s">
-        <v>35</v>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -7946,7 +7940,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" t="n">
         <v>7.84595</v>
@@ -7960,8 +7954,8 @@
       <c r="E68" t="n">
         <v>45</v>
       </c>
-      <c r="F68" t="s">
-        <v>35</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -8053,7 +8047,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B69" t="n">
         <v>8.54688</v>
@@ -8067,8 +8061,8 @@
       <c r="E69" t="n">
         <v>60</v>
       </c>
-      <c r="F69" t="s">
-        <v>35</v>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -8160,7 +8154,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" t="n">
         <v>9.085929999999999</v>
@@ -8174,8 +8168,8 @@
       <c r="E70" t="n">
         <v>41</v>
       </c>
-      <c r="F70" t="s">
-        <v>35</v>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -8267,7 +8261,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" t="n">
         <v>8.305059999999999</v>
@@ -8281,8 +8275,8 @@
       <c r="E71" t="n">
         <v>45</v>
       </c>
-      <c r="F71" t="s">
-        <v>35</v>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -8374,7 +8368,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="n">
         <v>7.75498</v>
@@ -8388,8 +8382,8 @@
       <c r="E72" t="n">
         <v>45</v>
       </c>
-      <c r="F72" t="s">
-        <v>35</v>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -8481,7 +8475,7 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" t="n">
         <v>6.37882</v>
@@ -8495,8 +8489,8 @@
       <c r="E73" t="n">
         <v>45</v>
       </c>
-      <c r="F73" t="s">
-        <v>59</v>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -8588,7 +8582,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B74" t="n">
         <v>8.331329999999999</v>
@@ -8602,8 +8596,8 @@
       <c r="E74" t="n">
         <v>45</v>
       </c>
-      <c r="F74" t="s">
-        <v>35</v>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -8695,7 +8689,7 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" t="n">
         <v>6.77936</v>
@@ -8709,8 +8703,8 @@
       <c r="E75" t="n">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
-        <v>35</v>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -8802,7 +8796,7 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" t="n">
         <v>6.64698</v>
@@ -8816,8 +8810,8 @@
       <c r="E76" t="n">
         <v>45</v>
       </c>
-      <c r="F76" t="s">
-        <v>35</v>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -8909,7 +8903,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" t="n">
         <v>7.93158</v>
@@ -8923,8 +8917,8 @@
       <c r="E77" t="n">
         <v>40</v>
       </c>
-      <c r="F77" t="s">
-        <v>35</v>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -9016,7 +9010,7 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" t="n">
         <v>7.77794</v>
@@ -9030,8 +9024,8 @@
       <c r="E78" t="n">
         <v>46</v>
       </c>
-      <c r="F78" t="s">
-        <v>35</v>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -9123,7 +9117,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" t="n">
         <v>6.42829</v>
@@ -9137,8 +9131,8 @@
       <c r="E79" t="n">
         <v>45</v>
       </c>
-      <c r="F79" t="s">
-        <v>35</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -9230,7 +9224,7 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" t="n">
         <v>8.507210000000001</v>
@@ -9244,8 +9238,8 @@
       <c r="E80" t="n">
         <v>40</v>
       </c>
-      <c r="F80" t="s">
-        <v>35</v>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -9337,7 +9331,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B81" t="n">
         <v>9.64043</v>
@@ -9351,8 +9345,8 @@
       <c r="E81" t="n">
         <v>51</v>
       </c>
-      <c r="F81" t="s">
-        <v>59</v>
+      <c r="F81" t="n">
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -9444,7 +9438,7 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B82" t="n">
         <v>8.07025</v>
@@ -9458,8 +9452,8 @@
       <c r="E82" t="n">
         <v>45</v>
       </c>
-      <c r="F82" t="s">
-        <v>35</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -9551,7 +9545,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B83" t="n">
         <v>8.10225</v>
@@ -9565,8 +9559,8 @@
       <c r="E83" t="n">
         <v>46</v>
       </c>
-      <c r="F83" t="s">
-        <v>35</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -9658,7 +9652,7 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B84" t="n">
         <v>6.45679</v>
@@ -9672,8 +9666,8 @@
       <c r="E84" t="n">
         <v>45</v>
       </c>
-      <c r="F84" t="s">
-        <v>35</v>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -9765,7 +9759,7 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B85" t="n">
         <v>6.78359</v>
@@ -9779,8 +9773,8 @@
       <c r="E85" t="n">
         <v>40</v>
       </c>
-      <c r="F85" t="s">
-        <v>35</v>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -9872,7 +9866,7 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86" t="n">
         <v>7.78698</v>
@@ -9886,8 +9880,8 @@
       <c r="E86" t="n">
         <v>46</v>
       </c>
-      <c r="F86" t="s">
-        <v>35</v>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -9979,7 +9973,7 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" t="n">
         <v>6.62123</v>
@@ -9993,8 +9987,8 @@
       <c r="E87" t="n">
         <v>45</v>
       </c>
-      <c r="F87" t="s">
-        <v>35</v>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -10086,7 +10080,7 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B88" t="n">
         <v>9.530659999999999</v>
@@ -10100,8 +10094,8 @@
       <c r="E88" t="n">
         <v>58</v>
       </c>
-      <c r="F88" t="s">
-        <v>35</v>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -10193,7 +10187,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" t="n">
         <v>6.29964</v>
@@ -10207,8 +10201,8 @@
       <c r="E89" t="n">
         <v>46</v>
       </c>
-      <c r="F89" t="s">
-        <v>35</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -10300,7 +10294,7 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B90" t="n">
         <v>6.28539</v>
@@ -10314,8 +10308,8 @@
       <c r="E90" t="n">
         <v>46</v>
       </c>
-      <c r="F90" t="s">
-        <v>35</v>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -10407,7 +10401,7 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B91" t="n">
         <v>7.23315</v>
@@ -10421,8 +10415,8 @@
       <c r="E91" t="n">
         <v>31</v>
       </c>
-      <c r="F91" t="s">
-        <v>35</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -10514,7 +10508,7 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B92" t="n">
         <v>6.70255</v>
@@ -10528,8 +10522,8 @@
       <c r="E92" t="n">
         <v>46</v>
       </c>
-      <c r="F92" t="s">
-        <v>35</v>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -10621,7 +10615,7 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" t="n">
         <v>6.98279</v>
@@ -10635,8 +10629,8 @@
       <c r="E93" t="n">
         <v>22</v>
       </c>
-      <c r="F93" t="s">
-        <v>35</v>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -10728,7 +10722,7 @@
     </row>
     <row r="94" spans="1:35">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B94" t="n">
         <v>6.47588</v>
@@ -10742,8 +10736,8 @@
       <c r="E94" t="n">
         <v>40</v>
       </c>
-      <c r="F94" t="s">
-        <v>35</v>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -10835,7 +10829,7 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B95" t="n">
         <v>6.99698</v>
@@ -10849,8 +10843,8 @@
       <c r="E95" t="n">
         <v>45</v>
       </c>
-      <c r="F95" t="s">
-        <v>35</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -10942,7 +10936,7 @@
     </row>
     <row r="96" spans="1:35">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B96" t="n">
         <v>6.55783</v>
@@ -10956,8 +10950,8 @@
       <c r="E96" t="n">
         <v>45</v>
       </c>
-      <c r="F96" t="s">
-        <v>35</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -11049,7 +11043,7 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B97" t="n">
         <v>6.79004</v>
@@ -11063,8 +11057,8 @@
       <c r="E97" t="n">
         <v>45</v>
       </c>
-      <c r="F97" t="s">
-        <v>35</v>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -11156,7 +11150,7 @@
     </row>
     <row r="98" spans="1:35">
       <c r="A98" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B98" t="n">
         <v>7.64963</v>
@@ -11170,8 +11164,8 @@
       <c r="E98" t="n">
         <v>26</v>
       </c>
-      <c r="F98" t="s">
-        <v>35</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -11263,7 +11257,7 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B99" t="n">
         <v>7.0924</v>
@@ -11277,8 +11271,8 @@
       <c r="E99" t="n">
         <v>41</v>
       </c>
-      <c r="F99" t="s">
-        <v>35</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -11370,7 +11364,7 @@
     </row>
     <row r="100" spans="1:35">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B100" t="n">
         <v>7.05923</v>
@@ -11384,8 +11378,8 @@
       <c r="E100" t="n">
         <v>45</v>
       </c>
-      <c r="F100" t="s">
-        <v>35</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -11477,7 +11471,7 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B101" t="n">
         <v>8.4169</v>
@@ -11491,8 +11485,8 @@
       <c r="E101" t="n">
         <v>45</v>
       </c>
-      <c r="F101" t="s">
-        <v>35</v>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
